--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1315491.593866782</v>
+        <v>1268708.986230158</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>625948.6630396484</v>
+        <v>625948.6630396486</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7817379.80490252</v>
+        <v>7817379.804902514</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>84.33604402022239</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>44.64130008435379</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034777</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>83.59830597394803</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>235.7412200973004</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>142.929990410344</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>181.8745616200808</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250842</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>128.7835007017904</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>142.9299904103435</v>
+        <v>84.09355802668685</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>18.3768222575565</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,13 +1308,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>59.66385641544551</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>164.8783252168507</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>159.2985086606752</v>
       </c>
     </row>
     <row r="12">
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>156.127162662147</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>315.0878501825939</v>
       </c>
       <c r="F14" t="n">
-        <v>105.3148082618163</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -1663,16 +1663,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017898</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>48.37651464118758</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>125.7482726725097</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>25.02169492285062</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>144.5773991465717</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -2086,16 +2086,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>323.9918595228949</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.998219257060982</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>213.6743229269899</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2338,7 +2338,7 @@
         <v>318.0487214609057</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>18.44902381826984</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>235.9418956294838</v>
+        <v>98.26387859609244</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>88.69000593943311</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.57882616418884</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.0555762462921</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2560,22 +2560,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>318.0487214609057</v>
       </c>
       <c r="I26" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>18.44902381826984</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>146.6487652966612</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>212.4941679871933</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>127.2284271446648</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>27.01006717676066</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2757,28 +2757,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.57882616418884</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>223.9358063394608</v>
       </c>
       <c r="U28" t="n">
-        <v>3.540390403367406</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>115.8896567391108</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I29" t="n">
         <v>129.8188433654458</v>
@@ -2848,19 +2848,19 @@
         <v>213.9375272825098</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>77.66385652733496</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>336.6435636003126</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>53.55762244236355</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>53.557622442364</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2678406362081</v>
@@ -3031,13 +3031,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>209.8306063225649</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>259.2155569436866</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>18.44902381826984</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>161.3455364069307</v>
       </c>
       <c r="T32" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>52.37844821257649</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>6.418012805205002</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>131.75675154216</v>
+        <v>244.1101301202442</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3283,7 +3283,7 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H35" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>129.8188433654458</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.0525194866071</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>13.55752015771517</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>69.30534830703689</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3508,13 +3508,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>158.9609597010089</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.2106022137938</v>
@@ -3523,7 +3523,7 @@
         <v>318.0487214609057</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>18.44902381826984</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>217.4928718112139</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I39" t="n">
-        <v>50.85619463218988</v>
+        <v>50.85619463218986</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>30.6573954989677</v>
+        <v>30.65739549896769</v>
       </c>
       <c r="S39" t="n">
         <v>150.8909729053132</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>53.93202000525312</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.4214708314252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>158.3160563850664</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>318.0487214609057</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>5.592101154396014</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I42" t="n">
-        <v>50.85619463218988</v>
+        <v>50.85619463218986</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>30.6573954989677</v>
+        <v>30.65739549896769</v>
       </c>
       <c r="S42" t="n">
         <v>150.8909729053132</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>157.0797927479794</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>53.55762244236344</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.2678406362081</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>210.5141249420879</v>
+        <v>19.51301524450703</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>159.0503257127733</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>53.55762244236374</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1168.064026826587</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2611.961167765473</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2611.961167765473</v>
       </c>
       <c r="U2" t="n">
-        <v>2420.850691555458</v>
+        <v>2611.961167765473</v>
       </c>
       <c r="V2" t="n">
-        <v>2089.787804211887</v>
+        <v>2280.898280421902</v>
       </c>
       <c r="W2" t="n">
-        <v>1737.019148941773</v>
+        <v>1928.129625151788</v>
       </c>
       <c r="X2" t="n">
-        <v>1363.553390680693</v>
+        <v>1554.663866890708</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1554.663866890708</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2251.981069572904</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4582,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1126.003240455234</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.981069572904</v>
+        <v>1126.003240455234</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4667,7 +4667,7 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
@@ -4691,7 +4691,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635871</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2251.981069572903</v>
+        <v>1507.089911220684</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548715</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548715</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572903</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641985</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.9054987607761</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C11" t="n">
-        <v>53.94298182036444</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036444</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036444</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036444</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U11" t="n">
-        <v>2256.941971675474</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V11" t="n">
-        <v>1925.879084331904</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W11" t="n">
-        <v>1573.11042906179</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X11" t="n">
-        <v>1199.64467080071</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="Y11" t="n">
-        <v>809.505338824898</v>
+        <v>1964.838184214438</v>
       </c>
     </row>
     <row r="12">
@@ -5096,73 +5096,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>570.4247794971948</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T13" t="n">
-        <v>343.1165921657965</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036444</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036444</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>546.1098286224635</v>
+        <v>1559.428949058529</v>
       </c>
       <c r="C14" t="n">
-        <v>546.1098286224635</v>
+        <v>1559.428949058529</v>
       </c>
       <c r="D14" t="n">
-        <v>546.1098286224635</v>
+        <v>1201.163250451779</v>
       </c>
       <c r="E14" t="n">
-        <v>160.3215760242193</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.483574129469</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.714918859355</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X14" t="n">
-        <v>936.2491605982752</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y14" t="n">
-        <v>546.1098286224635</v>
+        <v>1559.428949058529</v>
       </c>
     </row>
     <row r="15">
@@ -5333,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572643</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2643.317569050018</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S16" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T16" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036444</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036444</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1166.959449965771</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="C17" t="n">
-        <v>797.9969330253591</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="D17" t="n">
-        <v>439.7312344186087</v>
+        <v>1085.223837020925</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036444</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036444</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2515.101944303756</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2296.467277275819</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2296.467277275819</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V17" t="n">
-        <v>2296.467277275819</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W17" t="n">
-        <v>1943.698622005704</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X17" t="n">
-        <v>1943.698622005704</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y17" t="n">
-        <v>1553.559290029893</v>
+        <v>1443.489535627676</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>368.9169416640003</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="C19" t="n">
-        <v>199.9807587360934</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D19" t="n">
-        <v>199.9807587360934</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E19" t="n">
-        <v>199.9807587360934</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F19" t="n">
-        <v>199.9807587360934</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
-        <v>199.9807587360934</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5694,31 +5694,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S19" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T19" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U19" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V19" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W19" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X19" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y19" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1192.157102157134</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C20" t="n">
-        <v>823.1945852167225</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D20" t="n">
-        <v>464.928886609972</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>792.1933911785527</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889451</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5782,22 +5782,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2695.130687728262</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2695.130687728262</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2695.130687728262</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2342.362032458147</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>1968.896274197068</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y20" t="n">
-        <v>1578.756942221256</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5843,13 +5843,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2191.89927156006</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2481.31644159702</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>2481.31644159702</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V22" t="n">
-        <v>2481.31644159702</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W22" t="n">
-        <v>2191.89927156006</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X22" t="n">
-        <v>2191.89927156006</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y22" t="n">
-        <v>2191.89927156006</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1971.584752414172</v>
+        <v>2092.018078894093</v>
       </c>
       <c r="C23" t="n">
-        <v>1602.622235473761</v>
+        <v>2092.018078894093</v>
       </c>
       <c r="D23" t="n">
-        <v>1602.622235473761</v>
+        <v>1733.752380287342</v>
       </c>
       <c r="E23" t="n">
-        <v>1216.833982875517</v>
+        <v>1347.964127689098</v>
       </c>
       <c r="F23" t="n">
-        <v>805.8480780859089</v>
+        <v>936.9782228994906</v>
       </c>
       <c r="G23" t="n">
-        <v>388.4636314053091</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="H23" t="n">
-        <v>67.20229659631349</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="I23" t="n">
         <v>67.20229659631349</v>
       </c>
       <c r="J23" t="n">
-        <v>231.1641949821404</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K23" t="n">
         <v>597.645382172675</v>
@@ -5998,13 +5998,13 @@
         <v>1104.574328908085</v>
       </c>
       <c r="M23" t="n">
-        <v>1685.237002375316</v>
+        <v>1685.237002375317</v>
       </c>
       <c r="N23" t="n">
-        <v>2260.66340741757</v>
+        <v>2260.663407417569</v>
       </c>
       <c r="O23" t="n">
-        <v>2758.834606696547</v>
+        <v>2758.834606696546</v>
       </c>
       <c r="P23" t="n">
         <v>3146.337816775582</v>
@@ -6013,28 +6013,28 @@
         <v>3360.114829815675</v>
       </c>
       <c r="R23" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221462</v>
       </c>
       <c r="S23" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221462</v>
       </c>
       <c r="T23" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221462</v>
       </c>
       <c r="U23" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221462</v>
       </c>
       <c r="V23" t="n">
-        <v>3121.789682715186</v>
+        <v>3242.223009195106</v>
       </c>
       <c r="W23" t="n">
-        <v>3121.789682715186</v>
+        <v>3242.223009195106</v>
       </c>
       <c r="X23" t="n">
-        <v>2748.323924454106</v>
+        <v>2868.757250934027</v>
       </c>
       <c r="Y23" t="n">
-        <v>2358.184592478294</v>
+        <v>2478.617918958215</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>67.20229659631349</v>
       </c>
       <c r="J24" t="n">
-        <v>67.20229659631349</v>
+        <v>171.1635003404554</v>
       </c>
       <c r="K24" t="n">
-        <v>371.4209961047004</v>
+        <v>475.4705993509097</v>
       </c>
       <c r="L24" t="n">
-        <v>842.0038408395866</v>
+        <v>946.0534440857959</v>
       </c>
       <c r="M24" t="n">
-        <v>1443.131046326663</v>
+        <v>1547.180649572872</v>
       </c>
       <c r="N24" t="n">
-        <v>2075.875313620615</v>
+        <v>1705.375966266706</v>
       </c>
       <c r="O24" t="n">
-        <v>2588.297023317</v>
+        <v>2217.797675963091</v>
       </c>
       <c r="P24" t="n">
-        <v>2667.279412613341</v>
+        <v>2612.05820621297</v>
       </c>
       <c r="Q24" t="n">
         <v>2670.157851783212</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>475.8409835218421</v>
+        <v>530.7452563499575</v>
       </c>
       <c r="C25" t="n">
-        <v>306.9048005939352</v>
+        <v>530.7452563499575</v>
       </c>
       <c r="D25" t="n">
-        <v>156.7881611815995</v>
+        <v>530.7452563499575</v>
       </c>
       <c r="E25" t="n">
-        <v>67.20229659631349</v>
+        <v>382.8321627675643</v>
       </c>
       <c r="F25" t="n">
-        <v>67.20229659631349</v>
+        <v>235.942215269654</v>
       </c>
       <c r="G25" t="n">
         <v>67.20229659631349</v>
@@ -6168,31 +6168,31 @@
         <v>954.5619983528696</v>
       </c>
       <c r="Q25" t="n">
-        <v>946.9066183890425</v>
+        <v>954.5619983528696</v>
       </c>
       <c r="R25" t="n">
-        <v>946.9066183890425</v>
+        <v>954.5619983528696</v>
       </c>
       <c r="S25" t="n">
-        <v>946.9066183890425</v>
+        <v>954.5619983528696</v>
       </c>
       <c r="T25" t="n">
-        <v>946.9066183890425</v>
+        <v>820.162426386918</v>
       </c>
       <c r="U25" t="n">
-        <v>946.9066183890425</v>
+        <v>820.162426386918</v>
       </c>
       <c r="V25" t="n">
-        <v>946.9066183890425</v>
+        <v>820.162426386918</v>
       </c>
       <c r="W25" t="n">
-        <v>657.4894483520818</v>
+        <v>530.7452563499575</v>
       </c>
       <c r="X25" t="n">
-        <v>657.4894483520818</v>
+        <v>530.7452563499575</v>
       </c>
       <c r="Y25" t="n">
-        <v>657.4894483520818</v>
+        <v>530.7452563499575</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1664.206438446653</v>
+        <v>1143.214400943965</v>
       </c>
       <c r="C26" t="n">
-        <v>1295.243921506241</v>
+        <v>774.2518840035534</v>
       </c>
       <c r="D26" t="n">
-        <v>936.9782228994906</v>
+        <v>774.2518840035534</v>
       </c>
       <c r="E26" t="n">
-        <v>936.9782228994906</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="F26" t="n">
-        <v>936.9782228994906</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="G26" t="n">
-        <v>519.5937762188908</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="H26" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631349</v>
       </c>
       <c r="I26" t="n">
         <v>67.20229659631349</v>
       </c>
       <c r="J26" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821401</v>
       </c>
       <c r="K26" t="n">
-        <v>597.645382172675</v>
+        <v>597.6453821726748</v>
       </c>
       <c r="L26" t="n">
         <v>1104.574328908085</v>
       </c>
       <c r="M26" t="n">
-        <v>1685.237002375317</v>
+        <v>1685.237002375316</v>
       </c>
       <c r="N26" t="n">
         <v>2260.66340741757</v>
       </c>
       <c r="O26" t="n">
-        <v>2758.834606696546</v>
+        <v>2758.834606696547</v>
       </c>
       <c r="P26" t="n">
         <v>3146.337816775582</v>
@@ -6250,28 +6250,28 @@
         <v>3360.114829815675</v>
       </c>
       <c r="R26" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221462</v>
       </c>
       <c r="S26" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221462</v>
       </c>
       <c r="T26" t="n">
-        <v>3360.114829815675</v>
+        <v>3125.380939814887</v>
       </c>
       <c r="U26" t="n">
-        <v>3360.114829815675</v>
+        <v>2977.250873858663</v>
       </c>
       <c r="V26" t="n">
-        <v>3029.051942472104</v>
+        <v>2646.187986515093</v>
       </c>
       <c r="W26" t="n">
-        <v>2814.411368747666</v>
+        <v>2293.419331244978</v>
       </c>
       <c r="X26" t="n">
-        <v>2440.945610486586</v>
+        <v>1919.953572983899</v>
       </c>
       <c r="Y26" t="n">
-        <v>2050.806278510775</v>
+        <v>1529.814241008087</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>67.20229659631349</v>
       </c>
       <c r="K27" t="n">
-        <v>109.6888109643149</v>
+        <v>371.5093956067677</v>
       </c>
       <c r="L27" t="n">
-        <v>526.7256998860488</v>
+        <v>842.0922403416539</v>
       </c>
       <c r="M27" t="n">
-        <v>1127.852905373125</v>
+        <v>1443.21944582873</v>
       </c>
       <c r="N27" t="n">
-        <v>1760.597172667077</v>
+        <v>1601.414762522564</v>
       </c>
       <c r="O27" t="n">
-        <v>2273.018882363463</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P27" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q27" t="n">
         <v>2670.157851783212</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>370.9118490892374</v>
+        <v>67.20229659631349</v>
       </c>
       <c r="C28" t="n">
-        <v>370.9118490892374</v>
+        <v>67.20229659631349</v>
       </c>
       <c r="D28" t="n">
-        <v>370.9118490892374</v>
+        <v>67.20229659631349</v>
       </c>
       <c r="E28" t="n">
-        <v>222.9987555068443</v>
+        <v>67.20229659631349</v>
       </c>
       <c r="F28" t="n">
-        <v>222.9987555068443</v>
+        <v>67.20229659631349</v>
       </c>
       <c r="G28" t="n">
-        <v>222.9987555068443</v>
+        <v>67.20229659631349</v>
       </c>
       <c r="H28" t="n">
-        <v>222.9987555068443</v>
+        <v>67.20229659631349</v>
       </c>
       <c r="I28" t="n">
-        <v>94.48519273445557</v>
+        <v>67.20229659631349</v>
       </c>
       <c r="J28" t="n">
         <v>67.20229659631349</v>
@@ -6405,31 +6405,31 @@
         <v>954.5619983528696</v>
       </c>
       <c r="Q28" t="n">
-        <v>946.9066183890425</v>
+        <v>954.5619983528696</v>
       </c>
       <c r="R28" t="n">
-        <v>810.4451810583689</v>
+        <v>954.5619983528696</v>
       </c>
       <c r="S28" t="n">
-        <v>600.6857851931043</v>
+        <v>954.5619983528696</v>
       </c>
       <c r="T28" t="n">
-        <v>374.4880010118308</v>
+        <v>728.3642141715961</v>
       </c>
       <c r="U28" t="n">
-        <v>370.9118490892374</v>
+        <v>728.3642141715961</v>
       </c>
       <c r="V28" t="n">
-        <v>370.9118490892374</v>
+        <v>473.6797259657093</v>
       </c>
       <c r="W28" t="n">
-        <v>370.9118490892374</v>
+        <v>184.2625559287487</v>
       </c>
       <c r="X28" t="n">
-        <v>370.9118490892374</v>
+        <v>67.20229659631349</v>
       </c>
       <c r="Y28" t="n">
-        <v>370.9118490892374</v>
+        <v>67.20229659631349</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1311.348909555302</v>
+        <v>1733.752380287342</v>
       </c>
       <c r="C29" t="n">
-        <v>942.3863926148899</v>
+        <v>1733.752380287342</v>
       </c>
       <c r="D29" t="n">
-        <v>584.1206940081394</v>
+        <v>1733.752380287342</v>
       </c>
       <c r="E29" t="n">
-        <v>198.3324414098951</v>
+        <v>1347.964127689098</v>
       </c>
       <c r="F29" t="n">
-        <v>198.3324414098951</v>
+        <v>936.9782228994906</v>
       </c>
       <c r="G29" t="n">
-        <v>198.3324414098951</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="H29" t="n">
         <v>198.3324414098951</v>
@@ -6463,7 +6463,7 @@
         <v>67.20229659631349</v>
       </c>
       <c r="J29" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821404</v>
       </c>
       <c r="K29" t="n">
         <v>597.645382172675</v>
@@ -6472,13 +6472,13 @@
         <v>1104.574328908085</v>
       </c>
       <c r="M29" t="n">
-        <v>1685.237002375317</v>
+        <v>1685.237002375316</v>
       </c>
       <c r="N29" t="n">
         <v>2260.66340741757</v>
       </c>
       <c r="O29" t="n">
-        <v>2758.834606696546</v>
+        <v>2758.834606696547</v>
       </c>
       <c r="P29" t="n">
         <v>3146.337816775582</v>
@@ -6496,19 +6496,19 @@
         <v>2962.405650514957</v>
       </c>
       <c r="U29" t="n">
-        <v>2708.690214066746</v>
+        <v>2962.405650514957</v>
       </c>
       <c r="V29" t="n">
-        <v>2377.627326723175</v>
+        <v>2883.957310588356</v>
       </c>
       <c r="W29" t="n">
-        <v>2024.858671453061</v>
+        <v>2883.957310588356</v>
       </c>
       <c r="X29" t="n">
-        <v>1651.392913191981</v>
+        <v>2510.491552327276</v>
       </c>
       <c r="Y29" t="n">
-        <v>1311.348909555302</v>
+        <v>2120.352220351464</v>
       </c>
     </row>
     <row r="30">
@@ -6548,19 +6548,19 @@
         <v>371.5093956067677</v>
       </c>
       <c r="L30" t="n">
-        <v>474.9602984912294</v>
+        <v>842.0922403416539</v>
       </c>
       <c r="M30" t="n">
-        <v>1076.087503978306</v>
+        <v>1443.21944582873</v>
       </c>
       <c r="N30" t="n">
-        <v>1708.831771272257</v>
+        <v>1601.414762522564</v>
       </c>
       <c r="O30" t="n">
-        <v>2221.253480968643</v>
+        <v>2113.836472218949</v>
       </c>
       <c r="P30" t="n">
-        <v>2615.514011218521</v>
+        <v>2508.097002468828</v>
       </c>
       <c r="Q30" t="n">
         <v>2670.157851783212</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2472.755128059118</v>
+        <v>121.3009051239534</v>
       </c>
       <c r="C31" t="n">
-        <v>2472.755128059118</v>
+        <v>121.3009051239534</v>
       </c>
       <c r="D31" t="n">
-        <v>2472.755128059118</v>
+        <v>121.3009051239534</v>
       </c>
       <c r="E31" t="n">
-        <v>2472.755128059118</v>
+        <v>121.3009051239534</v>
       </c>
       <c r="F31" t="n">
-        <v>2472.755128059118</v>
+        <v>121.3009051239534</v>
       </c>
       <c r="G31" t="n">
-        <v>2472.755128059118</v>
+        <v>67.20229659631349</v>
       </c>
       <c r="H31" t="n">
-        <v>2472.755128059118</v>
+        <v>67.20229659631349</v>
       </c>
       <c r="I31" t="n">
-        <v>2472.755128059118</v>
+        <v>67.20229659631349</v>
       </c>
       <c r="J31" t="n">
-        <v>2472.755128059118</v>
+        <v>67.20229659631349</v>
       </c>
       <c r="K31" t="n">
-        <v>2558.649985611871</v>
+        <v>153.097154149067</v>
       </c>
       <c r="L31" t="n">
-        <v>2724.092265317942</v>
+        <v>318.5394338551379</v>
       </c>
       <c r="M31" t="n">
-        <v>2908.917075643208</v>
+        <v>503.364244180403</v>
       </c>
       <c r="N31" t="n">
-        <v>3094.781781504555</v>
+        <v>689.2289500417498</v>
       </c>
       <c r="O31" t="n">
-        <v>3250.4416249274</v>
+        <v>844.8887934645952</v>
       </c>
       <c r="P31" t="n">
-        <v>3360.114829815675</v>
+        <v>954.5619983528696</v>
       </c>
       <c r="Q31" t="n">
-        <v>3360.114829815675</v>
+        <v>954.5619983528696</v>
       </c>
       <c r="R31" t="n">
-        <v>3360.114829815675</v>
+        <v>954.5619983528696</v>
       </c>
       <c r="S31" t="n">
-        <v>3360.114829815675</v>
+        <v>954.5619983528696</v>
       </c>
       <c r="T31" t="n">
-        <v>3306.016221288034</v>
+        <v>954.5619983528696</v>
       </c>
       <c r="U31" t="n">
-        <v>3016.856786301965</v>
+        <v>665.4025633668009</v>
       </c>
       <c r="V31" t="n">
-        <v>2762.172298096079</v>
+        <v>410.7180751609141</v>
       </c>
       <c r="W31" t="n">
-        <v>2472.755128059118</v>
+        <v>121.3009051239534</v>
       </c>
       <c r="X31" t="n">
-        <v>2472.755128059118</v>
+        <v>121.3009051239534</v>
       </c>
       <c r="Y31" t="n">
-        <v>2472.755128059118</v>
+        <v>121.3009051239534</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1056.264408046189</v>
+        <v>1344.467690006834</v>
       </c>
       <c r="C32" t="n">
-        <v>687.3018911057777</v>
+        <v>1132.517582610304</v>
       </c>
       <c r="D32" t="n">
-        <v>329.0361924990272</v>
+        <v>774.2518840035534</v>
       </c>
       <c r="E32" t="n">
-        <v>67.20229659631349</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="F32" t="n">
-        <v>67.20229659631349</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="G32" t="n">
-        <v>67.20229659631349</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="H32" t="n">
         <v>67.20229659631349</v>
@@ -6715,7 +6715,7 @@
         <v>2260.66340741757</v>
       </c>
       <c r="O32" t="n">
-        <v>2758.834606696547</v>
+        <v>2758.834606696546</v>
       </c>
       <c r="P32" t="n">
         <v>3146.337816775582</v>
@@ -6724,28 +6724,28 @@
         <v>3360.114829815675</v>
       </c>
       <c r="R32" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221462</v>
       </c>
       <c r="S32" t="n">
-        <v>3360.114829815675</v>
+        <v>3178.504162921532</v>
       </c>
       <c r="T32" t="n">
-        <v>3144.016317409099</v>
+        <v>3178.504162921532</v>
       </c>
       <c r="U32" t="n">
-        <v>2890.300880960888</v>
+        <v>3178.504162921532</v>
       </c>
       <c r="V32" t="n">
-        <v>2559.237993617317</v>
+        <v>2847.441275577962</v>
       </c>
       <c r="W32" t="n">
-        <v>2206.469338347203</v>
+        <v>2494.672620307847</v>
       </c>
       <c r="X32" t="n">
-        <v>1833.003580086123</v>
+        <v>2121.206862046768</v>
       </c>
       <c r="Y32" t="n">
-        <v>1442.864248110311</v>
+        <v>1731.067530070956</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>67.20229659631349</v>
       </c>
       <c r="K33" t="n">
-        <v>109.6888109643149</v>
+        <v>371.5093956067677</v>
       </c>
       <c r="L33" t="n">
-        <v>526.7256998860488</v>
+        <v>842.0922403416539</v>
       </c>
       <c r="M33" t="n">
-        <v>1127.852905373125</v>
+        <v>1443.21944582873</v>
       </c>
       <c r="N33" t="n">
-        <v>1760.597172667077</v>
+        <v>1601.414762522564</v>
       </c>
       <c r="O33" t="n">
-        <v>2273.018882363463</v>
+        <v>2113.836472218949</v>
       </c>
       <c r="P33" t="n">
-        <v>2667.279412613341</v>
+        <v>2508.097002468828</v>
       </c>
       <c r="Q33" t="n">
         <v>2670.157851783212</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3139.322250672144</v>
+        <v>512.1219770889527</v>
       </c>
       <c r="C34" t="n">
-        <v>3086.414727225098</v>
+        <v>512.1219770889527</v>
       </c>
       <c r="D34" t="n">
-        <v>2936.298087812762</v>
+        <v>362.0053376766169</v>
       </c>
       <c r="E34" t="n">
-        <v>2788.384994230369</v>
+        <v>214.0922440942238</v>
       </c>
       <c r="F34" t="n">
-        <v>2641.495046732458</v>
+        <v>67.20229659631349</v>
       </c>
       <c r="G34" t="n">
-        <v>2472.755128059118</v>
+        <v>67.20229659631349</v>
       </c>
       <c r="H34" t="n">
-        <v>2472.755128059118</v>
+        <v>67.20229659631349</v>
       </c>
       <c r="I34" t="n">
-        <v>2472.755128059118</v>
+        <v>67.20229659631349</v>
       </c>
       <c r="J34" t="n">
-        <v>2472.755128059118</v>
+        <v>67.20229659631349</v>
       </c>
       <c r="K34" t="n">
-        <v>2558.649985611871</v>
+        <v>153.097154149067</v>
       </c>
       <c r="L34" t="n">
-        <v>2724.092265317942</v>
+        <v>318.5394338551379</v>
       </c>
       <c r="M34" t="n">
-        <v>2908.917075643208</v>
+        <v>503.364244180403</v>
       </c>
       <c r="N34" t="n">
-        <v>3094.781781504555</v>
+        <v>689.2289500417498</v>
       </c>
       <c r="O34" t="n">
-        <v>3250.4416249274</v>
+        <v>844.8887934645952</v>
       </c>
       <c r="P34" t="n">
-        <v>3360.114829815675</v>
+        <v>954.5619983528696</v>
       </c>
       <c r="Q34" t="n">
-        <v>3360.114829815675</v>
+        <v>954.5619983528696</v>
       </c>
       <c r="R34" t="n">
-        <v>3360.114829815675</v>
+        <v>954.5619983528696</v>
       </c>
       <c r="S34" t="n">
-        <v>3360.114829815675</v>
+        <v>744.802602487605</v>
       </c>
       <c r="T34" t="n">
-        <v>3360.114829815675</v>
+        <v>518.6048183063315</v>
       </c>
       <c r="U34" t="n">
-        <v>3360.114829815675</v>
+        <v>518.6048183063315</v>
       </c>
       <c r="V34" t="n">
-        <v>3360.114829815675</v>
+        <v>512.1219770889527</v>
       </c>
       <c r="W34" t="n">
-        <v>3360.114829815675</v>
+        <v>512.1219770889527</v>
       </c>
       <c r="X34" t="n">
-        <v>3360.114829815675</v>
+        <v>512.1219770889527</v>
       </c>
       <c r="Y34" t="n">
-        <v>3139.322250672144</v>
+        <v>512.1219770889527</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2225.105706714457</v>
+        <v>2017.332633095445</v>
       </c>
       <c r="C35" t="n">
-        <v>2092.018078894093</v>
+        <v>1770.756744085097</v>
       </c>
       <c r="D35" t="n">
-        <v>1733.752380287342</v>
+        <v>1412.491045478347</v>
       </c>
       <c r="E35" t="n">
-        <v>1347.964127689098</v>
+        <v>1026.702792880102</v>
       </c>
       <c r="F35" t="n">
-        <v>936.9782228994906</v>
+        <v>615.7168880904949</v>
       </c>
       <c r="G35" t="n">
-        <v>519.5937762188908</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="H35" t="n">
         <v>198.3324414098951</v>
       </c>
       <c r="I35" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J35" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K35" t="n">
-        <v>597.645382172675</v>
+        <v>597.6453821726752</v>
       </c>
       <c r="L35" t="n">
-        <v>1104.574328908085</v>
+        <v>1104.574328908086</v>
       </c>
       <c r="M35" t="n">
         <v>1685.237002375317</v>
@@ -6952,7 +6952,7 @@
         <v>2260.66340741757</v>
       </c>
       <c r="O35" t="n">
-        <v>2758.834606696546</v>
+        <v>2758.834606696547</v>
       </c>
       <c r="P35" t="n">
         <v>3146.337816775582</v>
@@ -6961,28 +6961,28 @@
         <v>3360.114829815675</v>
       </c>
       <c r="R35" t="n">
-        <v>3341.479452221462</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="S35" t="n">
-        <v>3341.479452221462</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="T35" t="n">
-        <v>3341.479452221462</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="U35" t="n">
-        <v>3341.479452221462</v>
+        <v>3087.764015773252</v>
       </c>
       <c r="V35" t="n">
-        <v>3341.479452221462</v>
+        <v>2756.701128429681</v>
       </c>
       <c r="W35" t="n">
-        <v>2988.710796951348</v>
+        <v>2403.932473159567</v>
       </c>
       <c r="X35" t="n">
-        <v>2615.245038690268</v>
+        <v>2403.932473159567</v>
       </c>
       <c r="Y35" t="n">
-        <v>2225.105706714457</v>
+        <v>2403.932473159567</v>
       </c>
     </row>
     <row r="36">
@@ -7007,34 +7007,34 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G36" t="n">
-        <v>221.0211629876734</v>
+        <v>221.0211629876735</v>
       </c>
       <c r="H36" t="n">
-        <v>118.572190164182</v>
+        <v>118.5721901641821</v>
       </c>
       <c r="I36" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J36" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K36" t="n">
-        <v>109.6888109643149</v>
+        <v>371.5093956067677</v>
       </c>
       <c r="L36" t="n">
-        <v>580.2716556992011</v>
+        <v>842.0922403416539</v>
       </c>
       <c r="M36" t="n">
-        <v>1181.398861186278</v>
+        <v>1443.21944582873</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.143128480229</v>
+        <v>1601.414762522564</v>
       </c>
       <c r="O36" t="n">
-        <v>2326.564838176615</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P36" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q36" t="n">
         <v>2670.157851783212</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3105.430341609788</v>
+        <v>702.9081311922897</v>
       </c>
       <c r="C37" t="n">
-        <v>3105.430341609788</v>
+        <v>533.9719482643828</v>
       </c>
       <c r="D37" t="n">
-        <v>3105.430341609788</v>
+        <v>383.8553088520471</v>
       </c>
       <c r="E37" t="n">
-        <v>2957.517248027395</v>
+        <v>235.942215269654</v>
       </c>
       <c r="F37" t="n">
-        <v>2810.627300529484</v>
+        <v>235.942215269654</v>
       </c>
       <c r="G37" t="n">
-        <v>2641.887381856144</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="H37" t="n">
-        <v>2486.449592864891</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="I37" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J37" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K37" t="n">
-        <v>2558.649985611871</v>
+        <v>153.097154149067</v>
       </c>
       <c r="L37" t="n">
-        <v>2724.092265317942</v>
+        <v>318.5394338551379</v>
       </c>
       <c r="M37" t="n">
-        <v>2908.917075643208</v>
+        <v>503.3642441804031</v>
       </c>
       <c r="N37" t="n">
-        <v>3094.781781504555</v>
+        <v>689.22895004175</v>
       </c>
       <c r="O37" t="n">
-        <v>3250.4416249274</v>
+        <v>844.8887934645953</v>
       </c>
       <c r="P37" t="n">
-        <v>3360.114829815675</v>
+        <v>954.5619983528698</v>
       </c>
       <c r="Q37" t="n">
-        <v>3360.114829815675</v>
+        <v>954.5619983528698</v>
       </c>
       <c r="R37" t="n">
-        <v>3360.114829815675</v>
+        <v>954.5619983528698</v>
       </c>
       <c r="S37" t="n">
-        <v>3360.114829815675</v>
+        <v>954.5619983528698</v>
       </c>
       <c r="T37" t="n">
-        <v>3360.114829815675</v>
+        <v>884.5565960225294</v>
       </c>
       <c r="U37" t="n">
-        <v>3360.114829815675</v>
+        <v>884.5565960225294</v>
       </c>
       <c r="V37" t="n">
-        <v>3105.430341609788</v>
+        <v>884.5565960225294</v>
       </c>
       <c r="W37" t="n">
-        <v>3105.430341609788</v>
+        <v>884.5565960225294</v>
       </c>
       <c r="X37" t="n">
-        <v>3105.430341609788</v>
+        <v>884.5565960225294</v>
       </c>
       <c r="Y37" t="n">
-        <v>3105.430341609788</v>
+        <v>884.5565960225294</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1971.584752414172</v>
+        <v>1852.295618398761</v>
       </c>
       <c r="C38" t="n">
-        <v>1602.622235473761</v>
+        <v>1483.33310145835</v>
       </c>
       <c r="D38" t="n">
-        <v>1602.622235473761</v>
+        <v>1322.766475497735</v>
       </c>
       <c r="E38" t="n">
-        <v>1216.833982875517</v>
+        <v>936.9782228994906</v>
       </c>
       <c r="F38" t="n">
-        <v>805.8480780859089</v>
+        <v>936.9782228994906</v>
       </c>
       <c r="G38" t="n">
-        <v>388.4636314053091</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="H38" t="n">
-        <v>67.20229659631349</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="I38" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J38" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K38" t="n">
-        <v>597.645382172675</v>
+        <v>597.6453821726753</v>
       </c>
       <c r="L38" t="n">
-        <v>1104.574328908085</v>
+        <v>1104.574328908086</v>
       </c>
       <c r="M38" t="n">
         <v>1685.237002375317</v>
@@ -7189,7 +7189,7 @@
         <v>2260.66340741757</v>
       </c>
       <c r="O38" t="n">
-        <v>2758.834606696546</v>
+        <v>2758.834606696547</v>
       </c>
       <c r="P38" t="n">
         <v>3146.337816775582</v>
@@ -7198,28 +7198,28 @@
         <v>3360.114829815675</v>
       </c>
       <c r="R38" t="n">
-        <v>3341.479452221462</v>
+        <v>3360.114829815675</v>
       </c>
       <c r="S38" t="n">
-        <v>3341.479452221462</v>
+        <v>3197.139540515745</v>
       </c>
       <c r="T38" t="n">
-        <v>3341.479452221462</v>
+        <v>3197.139540515745</v>
       </c>
       <c r="U38" t="n">
-        <v>3341.479452221462</v>
+        <v>2943.424104067534</v>
       </c>
       <c r="V38" t="n">
-        <v>3341.479452221462</v>
+        <v>2612.361216723963</v>
       </c>
       <c r="W38" t="n">
-        <v>3121.789682715186</v>
+        <v>2612.361216723963</v>
       </c>
       <c r="X38" t="n">
-        <v>2748.323924454106</v>
+        <v>2238.895458462883</v>
       </c>
       <c r="Y38" t="n">
-        <v>2358.184592478294</v>
+        <v>2238.895458462883</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>118.572190164182</v>
       </c>
       <c r="I39" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J39" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K39" t="n">
-        <v>109.6888109643149</v>
+        <v>371.5093956067677</v>
       </c>
       <c r="L39" t="n">
-        <v>526.7256998860488</v>
+        <v>842.092240341654</v>
       </c>
       <c r="M39" t="n">
-        <v>1127.852905373125</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N39" t="n">
-        <v>1760.597172667077</v>
+        <v>1601.414762522564</v>
       </c>
       <c r="O39" t="n">
-        <v>2273.018882363463</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P39" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q39" t="n">
         <v>2670.157851783212</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>67.20229659631349</v>
+        <v>290.6152674083145</v>
       </c>
       <c r="C40" t="n">
-        <v>67.20229659631349</v>
+        <v>121.6790844804076</v>
       </c>
       <c r="D40" t="n">
-        <v>67.20229659631349</v>
+        <v>121.6790844804076</v>
       </c>
       <c r="E40" t="n">
-        <v>67.20229659631349</v>
+        <v>121.6790844804076</v>
       </c>
       <c r="F40" t="n">
-        <v>67.20229659631349</v>
+        <v>121.6790844804076</v>
       </c>
       <c r="G40" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="H40" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="I40" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J40" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K40" t="n">
         <v>153.097154149067</v>
       </c>
       <c r="L40" t="n">
-        <v>318.5394338551379</v>
+        <v>318.539433855138</v>
       </c>
       <c r="M40" t="n">
-        <v>503.364244180403</v>
+        <v>503.3642441804033</v>
       </c>
       <c r="N40" t="n">
-        <v>689.2289500417498</v>
+        <v>689.2289500417501</v>
       </c>
       <c r="O40" t="n">
-        <v>844.8887934645952</v>
+        <v>844.8887934645954</v>
       </c>
       <c r="P40" t="n">
-        <v>954.5619983528696</v>
+        <v>954.56199835287</v>
       </c>
       <c r="Q40" t="n">
-        <v>954.5619983528696</v>
+        <v>954.56199835287</v>
       </c>
       <c r="R40" t="n">
-        <v>954.5619983528696</v>
+        <v>954.56199835287</v>
       </c>
       <c r="S40" t="n">
-        <v>954.5619983528696</v>
+        <v>744.8026024876053</v>
       </c>
       <c r="T40" t="n">
-        <v>954.5619983528696</v>
+        <v>518.6048183063318</v>
       </c>
       <c r="U40" t="n">
-        <v>954.5619983528696</v>
+        <v>518.6048183063318</v>
       </c>
       <c r="V40" t="n">
-        <v>954.5619983528696</v>
+        <v>518.6048183063318</v>
       </c>
       <c r="W40" t="n">
-        <v>665.1448283159091</v>
+        <v>518.6048183063318</v>
       </c>
       <c r="X40" t="n">
-        <v>437.1552774178917</v>
+        <v>290.6152674083145</v>
       </c>
       <c r="Y40" t="n">
-        <v>248.8507614265532</v>
+        <v>290.6152674083145</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2209.909899514661</v>
+        <v>1632.610244364297</v>
       </c>
       <c r="C41" t="n">
-        <v>1840.947382574249</v>
+        <v>1263.647727423885</v>
       </c>
       <c r="D41" t="n">
-        <v>1482.681683967499</v>
+        <v>905.3820288171351</v>
       </c>
       <c r="E41" t="n">
-        <v>1096.893431369255</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="F41" t="n">
-        <v>936.9782228994906</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="G41" t="n">
         <v>519.5937762188908</v>
@@ -7408,13 +7408,13 @@
         <v>198.3324414098951</v>
       </c>
       <c r="I41" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J41" t="n">
         <v>231.1641949821403</v>
       </c>
       <c r="K41" t="n">
-        <v>597.645382172675</v>
+        <v>597.6453821726749</v>
       </c>
       <c r="L41" t="n">
         <v>1104.574328908085</v>
@@ -7426,7 +7426,7 @@
         <v>2260.66340741757</v>
       </c>
       <c r="O41" t="n">
-        <v>2758.834606696546</v>
+        <v>2758.834606696547</v>
       </c>
       <c r="P41" t="n">
         <v>3146.337816775582</v>
@@ -7435,28 +7435,28 @@
         <v>3360.114829815675</v>
       </c>
       <c r="R41" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="S41" t="n">
-        <v>3360.114829815675</v>
+        <v>3178.504162921533</v>
       </c>
       <c r="T41" t="n">
-        <v>3360.114829815675</v>
+        <v>2962.405650514957</v>
       </c>
       <c r="U41" t="n">
-        <v>3360.114829815675</v>
+        <v>2708.690214066746</v>
       </c>
       <c r="V41" t="n">
-        <v>3360.114829815675</v>
+        <v>2377.627326723175</v>
       </c>
       <c r="W41" t="n">
-        <v>3360.114829815675</v>
+        <v>2024.858671453061</v>
       </c>
       <c r="X41" t="n">
-        <v>2986.649071554595</v>
+        <v>2024.858671453061</v>
       </c>
       <c r="Y41" t="n">
-        <v>2596.509739578783</v>
+        <v>2019.210084428419</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>118.572190164182</v>
       </c>
       <c r="I42" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J42" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K42" t="n">
         <v>371.5093956067677</v>
       </c>
       <c r="L42" t="n">
-        <v>842.0922403416539</v>
+        <v>779.7971981400576</v>
       </c>
       <c r="M42" t="n">
-        <v>1443.21944582873</v>
+        <v>919.8763905146344</v>
       </c>
       <c r="N42" t="n">
-        <v>1601.414762522564</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O42" t="n">
         <v>2065.042367504972</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.20229659631349</v>
+        <v>375.9853933298405</v>
       </c>
       <c r="C43" t="n">
-        <v>67.20229659631349</v>
+        <v>375.9853933298405</v>
       </c>
       <c r="D43" t="n">
-        <v>67.20229659631349</v>
+        <v>225.8687539175048</v>
       </c>
       <c r="E43" t="n">
-        <v>67.20229659631349</v>
+        <v>225.8687539175048</v>
       </c>
       <c r="F43" t="n">
-        <v>67.20229659631349</v>
+        <v>225.8687539175048</v>
       </c>
       <c r="G43" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="H43" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="I43" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J43" t="n">
-        <v>67.20229659631349</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K43" t="n">
         <v>153.097154149067</v>
       </c>
       <c r="L43" t="n">
-        <v>318.5394338551379</v>
+        <v>318.539433855138</v>
       </c>
       <c r="M43" t="n">
-        <v>503.364244180403</v>
+        <v>503.3642441804033</v>
       </c>
       <c r="N43" t="n">
-        <v>689.2289500417498</v>
+        <v>689.2289500417501</v>
       </c>
       <c r="O43" t="n">
-        <v>844.8887934645952</v>
+        <v>844.8887934645954</v>
       </c>
       <c r="P43" t="n">
-        <v>954.5619983528696</v>
+        <v>954.56199835287</v>
       </c>
       <c r="Q43" t="n">
-        <v>954.5619983528696</v>
+        <v>954.56199835287</v>
       </c>
       <c r="R43" t="n">
-        <v>954.5619983528696</v>
+        <v>954.56199835287</v>
       </c>
       <c r="S43" t="n">
-        <v>900.4633898252298</v>
+        <v>954.56199835287</v>
       </c>
       <c r="T43" t="n">
-        <v>900.4633898252298</v>
+        <v>954.56199835287</v>
       </c>
       <c r="U43" t="n">
-        <v>611.303954839161</v>
+        <v>665.4025633668011</v>
       </c>
       <c r="V43" t="n">
-        <v>356.6194666332741</v>
+        <v>665.4025633668011</v>
       </c>
       <c r="W43" t="n">
-        <v>67.20229659631349</v>
+        <v>375.9853933298405</v>
       </c>
       <c r="X43" t="n">
-        <v>67.20229659631349</v>
+        <v>375.9853933298405</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.20229659631349</v>
+        <v>375.9853933298405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1412.491045478347</v>
+        <v>2008.589116211927</v>
       </c>
       <c r="C44" t="n">
-        <v>1412.491045478347</v>
+        <v>1639.626599271516</v>
       </c>
       <c r="D44" t="n">
-        <v>1412.491045478347</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E44" t="n">
-        <v>1026.702792880102</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F44" t="n">
-        <v>615.7168880904949</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G44" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H44" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I44" t="n">
         <v>67.20229659631352</v>
       </c>
       <c r="J44" t="n">
-        <v>231.1641949821405</v>
+        <v>231.164194982141</v>
       </c>
       <c r="K44" t="n">
-        <v>597.6453821726755</v>
+        <v>597.6453821726757</v>
       </c>
       <c r="L44" t="n">
         <v>1104.574328908086</v>
       </c>
       <c r="M44" t="n">
-        <v>1685.237002375317</v>
+        <v>1685.237002375318</v>
       </c>
       <c r="N44" t="n">
         <v>2260.663407417571</v>
       </c>
       <c r="O44" t="n">
-        <v>2758.834606696547</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P44" t="n">
         <v>3146.337816775583</v>
       </c>
       <c r="Q44" t="n">
-        <v>3360.114829815675</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="R44" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="S44" t="n">
-        <v>3360.114829815675</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="T44" t="n">
-        <v>3360.114829815675</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="U44" t="n">
-        <v>3106.399393367464</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="V44" t="n">
-        <v>2775.336506023893</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="W44" t="n">
-        <v>2562.69597577936</v>
+        <v>3158.794046512941</v>
       </c>
       <c r="X44" t="n">
-        <v>2189.23021751828</v>
+        <v>2785.328288251861</v>
       </c>
       <c r="Y44" t="n">
-        <v>1799.090885542468</v>
+        <v>2395.188956276049</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>67.20229659631352</v>
+        <v>386.0588546819898</v>
       </c>
       <c r="C46" t="n">
-        <v>67.20229659631352</v>
+        <v>386.0588546819898</v>
       </c>
       <c r="D46" t="n">
-        <v>67.20229659631352</v>
+        <v>235.942215269654</v>
       </c>
       <c r="E46" t="n">
-        <v>67.20229659631352</v>
+        <v>235.942215269654</v>
       </c>
       <c r="F46" t="n">
-        <v>67.20229659631352</v>
+        <v>235.942215269654</v>
       </c>
       <c r="G46" t="n">
         <v>67.20229659631352</v>
@@ -7833,25 +7833,25 @@
         <v>954.56199835287</v>
       </c>
       <c r="S46" t="n">
-        <v>954.56199835287</v>
+        <v>793.905103693503</v>
       </c>
       <c r="T46" t="n">
-        <v>954.56199835287</v>
+        <v>567.7073195122294</v>
       </c>
       <c r="U46" t="n">
-        <v>665.4025633668011</v>
+        <v>567.7073195122294</v>
       </c>
       <c r="V46" t="n">
-        <v>410.7180751609143</v>
+        <v>567.7073195122294</v>
       </c>
       <c r="W46" t="n">
-        <v>121.3009051239537</v>
+        <v>567.7073195122294</v>
       </c>
       <c r="X46" t="n">
-        <v>67.20229659631352</v>
+        <v>567.7073195122294</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.20229659631352</v>
+        <v>567.7073195122294</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142005</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747269</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>21.0797184271342</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.3759445862479</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>55.77899636401117</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,25 +9956,25 @@
         <v>21.0797184271342</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>316.75352124977</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>344.5753448181662</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.28828423719136</v>
+        <v>160.7903132772859</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,16 +10430,16 @@
         <v>21.0797184271342</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>316.75352124977</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>160.7903132772859</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>21.0797184271342</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>344.5753448181662</v>
       </c>
       <c r="P36" t="n">
-        <v>264.3759445862478</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>21.0797184271342</v>
+        <v>21.07971842713417</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>316.75352124977</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>344.5753448181654</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,22 +11138,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>21.0797184271342</v>
+        <v>21.07971842713417</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>307.9160602513416</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>344.5753448181662</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22558,7 +22558,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>90.07966878874912</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>206.5828674239355</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22716,7 +22716,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -22728,7 +22728,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,25 +22749,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6835682680297</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>50.78177823929059</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>222.3429013606636</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>187.8565390583882</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22965,7 +22965,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,28 +22986,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6835682680297</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724674</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>222.342901360664</v>
+        <v>281.1793337443207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23038,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23184,10 +23184,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890127</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23196,13 +23196,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>96.50703242634964</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>86.34584229143863</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>226.9394299953784</v>
       </c>
     </row>
     <row r="12">
@@ -23439,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>56.01837628787186</v>
+        <v>83.36203824822857</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,16 +23500,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>66.84251988966793</v>
       </c>
       <c r="F14" t="n">
-        <v>301.5612374798952</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23673,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>157.498373540188</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>333.5538554310742</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>48.66744013646181</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>142.2251261757772</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>11.5934896952235</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923382</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -23974,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049790008</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>214.4501011005968</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -24031,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,28 +24129,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24180,16 +24180,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>11.36078253109434</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>226.6180178265324</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>18.44902381826984</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>161.3455364069307</v>
@@ -24265,7 +24265,7 @@
         <v>251.1782820837292</v>
       </c>
       <c r="V23" t="n">
-        <v>91.81036284065109</v>
+        <v>229.4883798740425</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>57.74395670713606</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>153.8834111013403</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>7.57882616418884</v>
       </c>
       <c r="R25" t="n">
         <v>135.0968229573668</v>
@@ -24417,7 +24417,7 @@
         <v>207.661801906612</v>
       </c>
       <c r="T25" t="n">
-        <v>223.9358063394608</v>
+        <v>90.88023009316868</v>
       </c>
       <c r="U25" t="n">
         <v>286.2678406362081</v>
@@ -24448,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>18.44902381826984</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>161.3455364069307</v>
       </c>
       <c r="T26" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1782820837292</v>
+        <v>104.529516787068</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>136.7468007302197</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,10 +24621,10 @@
         <v>153.8834111013403</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>27.01006717676066</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,28 +24645,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>7.57882616418884</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.7274502328407</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>109.8199986499263</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>250.0884019427999</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>49.59437505574095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.0525194866071</v>
+        <v>113.4948970442436</v>
       </c>
       <c r="H31" t="n">
         <v>153.8834111013403</v>
@@ -24891,7 +24891,7 @@
         <v>207.661801906612</v>
       </c>
       <c r="T31" t="n">
-        <v>170.3781838970968</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24919,13 +24919,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>155.4422854484426</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>122.7148131285752</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24934,7 +24934,7 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H32" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>129.8188433654458</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>18.44902381826984</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>161.3455364069307</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>114.8683728860513</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H34" t="n">
         <v>153.8834111013403</v>
@@ -25125,16 +25125,16 @@
         <v>135.0968229573668</v>
       </c>
       <c r="S34" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2678406362081</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>245.719630518623</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>233.5161402288475</v>
+        <v>121.1627616507633</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>213.9375272825098</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I37" t="n">
-        <v>113.6709069869497</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J37" t="n">
         <v>27.01006717676066</v>
@@ -25365,13 +25365,13 @@
         <v>207.661801906612</v>
       </c>
       <c r="T37" t="n">
-        <v>223.9358063394608</v>
+        <v>154.6304580324239</v>
       </c>
       <c r="U37" t="n">
         <v>286.2678406362081</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25396,13 +25396,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>195.7220819196741</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S38" t="n">
-        <v>161.3455364069307</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>213.9375272825098</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>131.7480969061991</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.0525194866071</v>
+        <v>113.120499481354</v>
       </c>
       <c r="H40" t="n">
         <v>153.8834111013403</v>
@@ -25572,7 +25572,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J40" t="n">
-        <v>27.01006717676066</v>
+        <v>27.01006717676064</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.57882616418884</v>
+        <v>7.578826164188825</v>
       </c>
       <c r="R40" t="n">
         <v>135.0968229573668</v>
       </c>
       <c r="S40" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2678406362081</v>
@@ -25611,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.16318252066964</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>248.5599893566451</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>18.44902381826984</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>161.3455364069307</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>380.6458375016576</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.0525194866071</v>
+        <v>9.972726738627756</v>
       </c>
       <c r="H43" t="n">
         <v>153.8834111013403</v>
@@ -25809,7 +25809,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J43" t="n">
-        <v>27.01006717676066</v>
+        <v>27.01006717676064</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.57882616418884</v>
+        <v>7.578826164188825</v>
       </c>
       <c r="R43" t="n">
         <v>135.0968229573668</v>
       </c>
       <c r="S43" t="n">
-        <v>154.1041794642486</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T43" t="n">
         <v>223.9358063394608</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>318.0487214609057</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>18.44902381826981</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>213.9375272825098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>138.7268437753251</v>
+        <v>329.727953472906</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>153.8834111013403</v>
@@ -26073,22 +26073,22 @@
         <v>135.0968229573668</v>
       </c>
       <c r="S46" t="n">
-        <v>207.661801906612</v>
+        <v>48.61147619383868</v>
       </c>
       <c r="T46" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>172.1520329466734</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>717281.8040739081</v>
+        <v>717281.8040739082</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>717281.8040739081</v>
+        <v>717281.804073908</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>717281.8040739081</v>
+        <v>717281.804073908</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>717281.8040739081</v>
+        <v>717281.804073908</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>795457.7467844147</v>
+        <v>795457.7467844146</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>795457.7467844147</v>
+        <v>795457.7467844146</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>795457.746784415</v>
+        <v>795457.7467844147</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>795457.7467844146</v>
+        <v>795457.7467844147</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>795457.7467844146</v>
+        <v>795457.7467844149</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165456</v>
       </c>
       <c r="C2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165457</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165457</v>
       </c>
       <c r="E2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="F2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="G2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165457</v>
       </c>
       <c r="H2" t="n">
         <v>303610.2405165454</v>
@@ -26337,10 +26337,10 @@
         <v>337347.8118794857</v>
       </c>
       <c r="J2" t="n">
-        <v>337347.8118794856</v>
+        <v>337347.8118794857</v>
       </c>
       <c r="K2" t="n">
-        <v>337347.8118794857</v>
+        <v>337347.8118794854</v>
       </c>
       <c r="L2" t="n">
         <v>337347.8118794857</v>
@@ -26349,7 +26349,7 @@
         <v>337347.8118794858</v>
       </c>
       <c r="N2" t="n">
-        <v>337347.8118794857</v>
+        <v>337347.8118794854</v>
       </c>
       <c r="O2" t="n">
         <v>337347.8118794857</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.651701151989983e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>151472.5856033436</v>
+        <v>151472.5856033437</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26426,16 +26426,16 @@
         <v>9371.018034361483</v>
       </c>
       <c r="E4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="F4" t="n">
         <v>9371.018034361485</v>
       </c>
-      <c r="F4" t="n">
-        <v>9371.018034361483</v>
-      </c>
       <c r="G4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="H4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="I4" t="n">
         <v>8909.485408078568</v>
@@ -26444,7 +26444,7 @@
         <v>8909.485408078568</v>
       </c>
       <c r="K4" t="n">
-        <v>8909.485408078566</v>
+        <v>8909.485408078568</v>
       </c>
       <c r="L4" t="n">
         <v>8909.485408078568</v>
@@ -26453,10 +26453,10 @@
         <v>8909.485408078568</v>
       </c>
       <c r="N4" t="n">
-        <v>8909.485408078568</v>
+        <v>8909.485408078566</v>
       </c>
       <c r="O4" t="n">
-        <v>8909.485408078568</v>
+        <v>8909.485408078566</v>
       </c>
       <c r="P4" t="n">
         <v>8909.485408078566</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26511,7 +26511,7 @@
         <v>62418.87211854674</v>
       </c>
       <c r="P5" t="n">
-        <v>62418.87211854675</v>
+        <v>62418.87211854676</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-378587.7347957699</v>
+        <v>-384656.1485415892</v>
       </c>
       <c r="C6" t="n">
-        <v>211380.1444187746</v>
+        <v>205311.7306729555</v>
       </c>
       <c r="D6" t="n">
-        <v>211380.1444187746</v>
+        <v>205311.7306729556</v>
       </c>
       <c r="E6" t="n">
-        <v>245007.7444187746</v>
+        <v>238939.3306729552</v>
       </c>
       <c r="F6" t="n">
-        <v>245007.7444187746</v>
+        <v>238939.3306729556</v>
       </c>
       <c r="G6" t="n">
-        <v>245007.7444187746</v>
+        <v>238939.3306729552</v>
       </c>
       <c r="H6" t="n">
-        <v>245007.7444187744</v>
+        <v>238939.3306729552</v>
       </c>
       <c r="I6" t="n">
-        <v>114546.8687495168</v>
+        <v>110085.0060209804</v>
       </c>
       <c r="J6" t="n">
-        <v>89596.23516026736</v>
+        <v>85134.37243173106</v>
       </c>
       <c r="K6" t="n">
-        <v>266019.4543528603</v>
+        <v>261557.5916243238</v>
       </c>
       <c r="L6" t="n">
-        <v>266019.4543528604</v>
+        <v>261557.591624324</v>
       </c>
       <c r="M6" t="n">
-        <v>266019.4543528605</v>
+        <v>261557.5916243242</v>
       </c>
       <c r="N6" t="n">
-        <v>266019.4543528603</v>
+        <v>261557.5916243238</v>
       </c>
       <c r="O6" t="n">
-        <v>266019.4543528603</v>
+        <v>261557.591624324</v>
       </c>
       <c r="P6" t="n">
-        <v>266019.4543528603</v>
+        <v>261557.591624324</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26773,10 +26773,10 @@
         <v>520.418656208646</v>
       </c>
       <c r="N3" t="n">
-        <v>520.418656208646</v>
+        <v>520.4186562086461</v>
       </c>
       <c r="O3" t="n">
-        <v>520.418656208646</v>
+        <v>520.4186562086461</v>
       </c>
       <c r="P3" t="n">
         <v>520.4186562086461</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="G4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="H4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="E4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="F4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="G4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="H4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>840.0287074539186</v>
@@ -26822,16 +26822,16 @@
         <v>840.0287074539186</v>
       </c>
       <c r="M4" t="n">
-        <v>840.0287074539186</v>
+        <v>840.0287074539187</v>
       </c>
       <c r="N4" t="n">
-        <v>840.0287074539186</v>
+        <v>840.0287074539187</v>
       </c>
       <c r="O4" t="n">
-        <v>840.0287074539186</v>
+        <v>840.0287074539187</v>
       </c>
       <c r="P4" t="n">
-        <v>840.0287074539189</v>
+        <v>840.028707453919</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26971,10 +26971,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.019233351862297e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>165.741434699363</v>
+        <v>165.7414346993631</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31047,43 +31047,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -33891,7 +33891,7 @@
         <v>21.42608065486148</v>
       </c>
       <c r="I38" t="n">
-        <v>80.65704620496011</v>
+        <v>80.65704620496014</v>
       </c>
       <c r="J38" t="n">
         <v>177.5673685322154</v>
@@ -33900,13 +33900,13 @@
         <v>266.1274558379922</v>
       </c>
       <c r="L38" t="n">
-        <v>330.1546415664157</v>
+        <v>330.1546415664158</v>
       </c>
       <c r="M38" t="n">
-        <v>367.3606527316438</v>
+        <v>367.3606527316439</v>
       </c>
       <c r="N38" t="n">
-        <v>373.3049321565798</v>
+        <v>373.3049321565799</v>
       </c>
       <c r="O38" t="n">
         <v>352.5012617538674</v>
@@ -33918,13 +33918,13 @@
         <v>225.9270760227193</v>
       </c>
       <c r="R38" t="n">
-        <v>131.4200941228798</v>
+        <v>131.4200941228799</v>
       </c>
       <c r="S38" t="n">
-        <v>47.67453317931466</v>
+        <v>47.67453317931468</v>
       </c>
       <c r="T38" t="n">
-        <v>9.158322281621496</v>
+        <v>9.158322281621498</v>
       </c>
       <c r="U38" t="n">
         <v>0.1673708241073031</v>
@@ -33970,43 +33970,43 @@
         <v>10.81096114123999</v>
       </c>
       <c r="I39" t="n">
-        <v>38.5404382192252</v>
+        <v>38.54043821922522</v>
       </c>
       <c r="J39" t="n">
         <v>105.7579082395325</v>
       </c>
       <c r="K39" t="n">
-        <v>180.7571100531483</v>
+        <v>180.7571100531484</v>
       </c>
       <c r="L39" t="n">
-        <v>243.0502412793304</v>
+        <v>243.0502412793305</v>
       </c>
       <c r="M39" t="n">
-        <v>283.628167633712</v>
+        <v>283.6281676337121</v>
       </c>
       <c r="N39" t="n">
-        <v>291.1349612690236</v>
+        <v>291.1349612690237</v>
       </c>
       <c r="O39" t="n">
-        <v>266.3316117297209</v>
+        <v>266.331611729721</v>
       </c>
       <c r="P39" t="n">
-        <v>213.754598622755</v>
+        <v>213.7545986227551</v>
       </c>
       <c r="Q39" t="n">
         <v>142.889288399023</v>
       </c>
       <c r="R39" t="n">
-        <v>69.50043865367543</v>
+        <v>69.50043865367545</v>
       </c>
       <c r="S39" t="n">
-        <v>20.79219819852466</v>
+        <v>20.79219819852467</v>
       </c>
       <c r="T39" t="n">
         <v>4.511931557129675</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07364414946348767</v>
+        <v>0.07364414946348768</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9384598718516566</v>
+        <v>0.9384598718516568</v>
       </c>
       <c r="H40" t="n">
-        <v>8.343761406099279</v>
+        <v>8.343761406099281</v>
       </c>
       <c r="I40" t="n">
-        <v>28.22204778259346</v>
+        <v>28.22204778259347</v>
       </c>
       <c r="J40" t="n">
-        <v>66.34911293991212</v>
+        <v>66.34911293991213</v>
       </c>
       <c r="K40" t="n">
-        <v>109.0319742024015</v>
+        <v>109.0319742024016</v>
       </c>
       <c r="L40" t="n">
-        <v>139.5233885841999</v>
+        <v>139.5233885842</v>
       </c>
       <c r="M40" t="n">
         <v>147.1078506394374</v>
@@ -34073,19 +34073,19 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.58321708750555</v>
+        <v>78.58321708750556</v>
       </c>
       <c r="R40" t="n">
-        <v>42.19656841980266</v>
+        <v>42.19656841980267</v>
       </c>
       <c r="S40" t="n">
         <v>16.35479613036023</v>
       </c>
       <c r="T40" t="n">
-        <v>4.009783088820713</v>
+        <v>4.009783088820714</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05118872028281769</v>
+        <v>0.0511887202828177</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>21.42608065486148</v>
       </c>
       <c r="I41" t="n">
-        <v>80.65704620496011</v>
+        <v>80.65704620496014</v>
       </c>
       <c r="J41" t="n">
         <v>177.5673685322154</v>
@@ -34137,13 +34137,13 @@
         <v>266.1274558379922</v>
       </c>
       <c r="L41" t="n">
-        <v>330.1546415664157</v>
+        <v>330.1546415664158</v>
       </c>
       <c r="M41" t="n">
-        <v>367.3606527316438</v>
+        <v>367.3606527316439</v>
       </c>
       <c r="N41" t="n">
-        <v>373.3049321565798</v>
+        <v>373.3049321565799</v>
       </c>
       <c r="O41" t="n">
         <v>352.5012617538674</v>
@@ -34155,13 +34155,13 @@
         <v>225.9270760227193</v>
       </c>
       <c r="R41" t="n">
-        <v>131.4200941228798</v>
+        <v>131.4200941228799</v>
       </c>
       <c r="S41" t="n">
-        <v>47.67453317931466</v>
+        <v>47.67453317931468</v>
       </c>
       <c r="T41" t="n">
-        <v>9.158322281621496</v>
+        <v>9.158322281621498</v>
       </c>
       <c r="U41" t="n">
         <v>0.1673708241073031</v>
@@ -34207,43 +34207,43 @@
         <v>10.81096114123999</v>
       </c>
       <c r="I42" t="n">
-        <v>38.5404382192252</v>
+        <v>38.54043821922522</v>
       </c>
       <c r="J42" t="n">
         <v>105.7579082395325</v>
       </c>
       <c r="K42" t="n">
-        <v>180.7571100531483</v>
+        <v>180.7571100531484</v>
       </c>
       <c r="L42" t="n">
-        <v>243.0502412793304</v>
+        <v>243.0502412793305</v>
       </c>
       <c r="M42" t="n">
-        <v>283.628167633712</v>
+        <v>283.6281676337121</v>
       </c>
       <c r="N42" t="n">
-        <v>291.1349612690236</v>
+        <v>291.1349612690237</v>
       </c>
       <c r="O42" t="n">
-        <v>266.3316117297209</v>
+        <v>266.331611729721</v>
       </c>
       <c r="P42" t="n">
-        <v>213.754598622755</v>
+        <v>213.7545986227551</v>
       </c>
       <c r="Q42" t="n">
         <v>142.889288399023</v>
       </c>
       <c r="R42" t="n">
-        <v>69.50043865367543</v>
+        <v>69.50043865367545</v>
       </c>
       <c r="S42" t="n">
-        <v>20.79219819852466</v>
+        <v>20.79219819852467</v>
       </c>
       <c r="T42" t="n">
         <v>4.511931557129675</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07364414946348767</v>
+        <v>0.07364414946348768</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9384598718516566</v>
+        <v>0.9384598718516568</v>
       </c>
       <c r="H43" t="n">
-        <v>8.343761406099279</v>
+        <v>8.343761406099281</v>
       </c>
       <c r="I43" t="n">
-        <v>28.22204778259346</v>
+        <v>28.22204778259347</v>
       </c>
       <c r="J43" t="n">
-        <v>66.34911293991212</v>
+        <v>66.34911293991213</v>
       </c>
       <c r="K43" t="n">
-        <v>109.0319742024015</v>
+        <v>109.0319742024016</v>
       </c>
       <c r="L43" t="n">
-        <v>139.5233885841999</v>
+        <v>139.5233885842</v>
       </c>
       <c r="M43" t="n">
         <v>147.1078506394374</v>
@@ -34310,19 +34310,19 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.58321708750555</v>
+        <v>78.58321708750556</v>
       </c>
       <c r="R43" t="n">
-        <v>42.19656841980266</v>
+        <v>42.19656841980267</v>
       </c>
       <c r="S43" t="n">
         <v>16.35479613036023</v>
       </c>
       <c r="T43" t="n">
-        <v>4.009783088820713</v>
+        <v>4.009783088820714</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05118872028281769</v>
+        <v>0.0511887202828177</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624592</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>54.37527471535621</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047517</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535759</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35974,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>105.0113169132746</v>
       </c>
       <c r="K24" t="n">
-        <v>307.2916156650372</v>
+        <v>307.3809080913679</v>
       </c>
       <c r="L24" t="n">
         <v>475.3362068029154</v>
@@ -36448,16 +36448,16 @@
         <v>607.1991974616935</v>
       </c>
       <c r="N24" t="n">
-        <v>639.1356235292437</v>
+        <v>159.7932491856903</v>
       </c>
       <c r="O24" t="n">
         <v>517.5976865620059</v>
       </c>
       <c r="P24" t="n">
-        <v>79.78019120842478</v>
+        <v>398.2429598483619</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.907514313001457</v>
+        <v>58.68651067701263</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>42.9156710787893</v>
+        <v>307.3809080913679</v>
       </c>
       <c r="L27" t="n">
-        <v>421.2493827492262</v>
+        <v>475.3362068029154</v>
       </c>
       <c r="M27" t="n">
         <v>607.1991974616935</v>
       </c>
       <c r="N27" t="n">
-        <v>639.1356235292437</v>
+        <v>159.7932491856903</v>
       </c>
       <c r="O27" t="n">
-        <v>517.5976865620059</v>
+        <v>468.3107121034427</v>
       </c>
       <c r="P27" t="n">
         <v>398.2429598483619</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.907514313001457</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>307.3809080913679</v>
       </c>
       <c r="L30" t="n">
-        <v>104.4958614994562</v>
+        <v>475.3362068029154</v>
       </c>
       <c r="M30" t="n">
         <v>607.1991974616935</v>
       </c>
       <c r="N30" t="n">
-        <v>639.1356235292437</v>
+        <v>159.7932491856903</v>
       </c>
       <c r="O30" t="n">
         <v>517.5976865620059</v>
@@ -36931,7 +36931,7 @@
         <v>398.2429598483619</v>
       </c>
       <c r="Q30" t="n">
-        <v>55.19579855019282</v>
+        <v>163.6978275902874</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>42.9156710787893</v>
+        <v>307.3809080913679</v>
       </c>
       <c r="L33" t="n">
-        <v>421.2493827492262</v>
+        <v>475.3362068029154</v>
       </c>
       <c r="M33" t="n">
         <v>607.1991974616935</v>
       </c>
       <c r="N33" t="n">
-        <v>639.1356235292437</v>
+        <v>159.7932491856903</v>
       </c>
       <c r="O33" t="n">
         <v>517.5976865620059</v>
@@ -37168,7 +37168,7 @@
         <v>398.2429598483619</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.907514313001457</v>
+        <v>163.6978275902874</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>42.9156710787893</v>
+        <v>307.3809080913679</v>
       </c>
       <c r="L36" t="n">
         <v>475.3362068029154</v>
@@ -37396,16 +37396,16 @@
         <v>607.1991974616935</v>
       </c>
       <c r="N36" t="n">
-        <v>639.1356235292437</v>
+        <v>159.7932491856903</v>
       </c>
       <c r="O36" t="n">
-        <v>517.5976865620059</v>
+        <v>468.3107121034427</v>
       </c>
       <c r="P36" t="n">
-        <v>344.1561357946725</v>
+        <v>398.2429598483619</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.907514313001457</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,10 +37551,10 @@
         <v>512.049441146879</v>
       </c>
       <c r="M38" t="n">
-        <v>586.5279529972036</v>
+        <v>586.5279529972037</v>
       </c>
       <c r="N38" t="n">
-        <v>581.238792971973</v>
+        <v>581.2387929719732</v>
       </c>
       <c r="O38" t="n">
         <v>503.203231594926</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>42.9156710787893</v>
+        <v>307.3809080913679</v>
       </c>
       <c r="L39" t="n">
-        <v>421.2493827492262</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M39" t="n">
-        <v>607.1991974616935</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N39" t="n">
-        <v>639.1356235292437</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O39" t="n">
-        <v>517.5976865620059</v>
+        <v>468.310712103442</v>
       </c>
       <c r="P39" t="n">
-        <v>398.2429598483619</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.907514313001457</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>86.76248237651868</v>
+        <v>86.7624823765187</v>
       </c>
       <c r="L40" t="n">
         <v>167.1134138445161</v>
@@ -37712,10 +37712,10 @@
         <v>186.691727601278</v>
       </c>
       <c r="N40" t="n">
-        <v>187.7421271326735</v>
+        <v>187.7421271326736</v>
       </c>
       <c r="O40" t="n">
-        <v>157.2321650735811</v>
+        <v>157.2321650735812</v>
       </c>
       <c r="P40" t="n">
         <v>110.7810150386611</v>
@@ -37788,10 +37788,10 @@
         <v>512.049441146879</v>
       </c>
       <c r="M41" t="n">
-        <v>586.5279529972036</v>
+        <v>586.5279529972037</v>
       </c>
       <c r="N41" t="n">
-        <v>581.238792971973</v>
+        <v>581.2387929719732</v>
       </c>
       <c r="O41" t="n">
         <v>503.203231594926</v>
@@ -37864,19 +37864,19 @@
         <v>307.3809080913679</v>
       </c>
       <c r="L42" t="n">
-        <v>475.3362068029154</v>
+        <v>412.4119217507979</v>
       </c>
       <c r="M42" t="n">
-        <v>607.1991974616935</v>
+        <v>141.4941337116938</v>
       </c>
       <c r="N42" t="n">
-        <v>159.7932491856903</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O42" t="n">
-        <v>468.3107121034427</v>
+        <v>517.5976865620061</v>
       </c>
       <c r="P42" t="n">
-        <v>398.2429598483619</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q42" t="n">
         <v>212.9848020488506</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>86.76248237651868</v>
+        <v>86.7624823765187</v>
       </c>
       <c r="L43" t="n">
         <v>167.1134138445161</v>
@@ -37949,10 +37949,10 @@
         <v>186.691727601278</v>
       </c>
       <c r="N43" t="n">
-        <v>187.7421271326735</v>
+        <v>187.7421271326736</v>
       </c>
       <c r="O43" t="n">
-        <v>157.2321650735811</v>
+        <v>157.2321650735812</v>
       </c>
       <c r="P43" t="n">
         <v>110.7810150386611</v>
